--- a/HeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/HeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F41DEBC-190E-4A97-A878-3CC3D0235625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB1CF78-126F-4839-AE37-C8609A9CAA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dialogue" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="44">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,110 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이름_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름_002</t>
-  </si>
-  <si>
-    <t>이름_003</t>
-  </si>
-  <si>
-    <t>이름_004</t>
-  </si>
-  <si>
-    <t>이름_005</t>
-  </si>
-  <si>
-    <t>이름_006</t>
-  </si>
-  <si>
-    <t>이름_007</t>
-  </si>
-  <si>
-    <t>이름_008</t>
-  </si>
-  <si>
-    <t>이름_009</t>
-  </si>
-  <si>
-    <t>이름_010</t>
-  </si>
-  <si>
-    <t>이름_011</t>
-  </si>
-  <si>
-    <t>이름_012</t>
-  </si>
-  <si>
-    <t>이름_013</t>
-  </si>
-  <si>
-    <t>이름_014</t>
-  </si>
-  <si>
-    <t>이름_015</t>
-  </si>
-  <si>
-    <t>이름_016</t>
-  </si>
-  <si>
-    <t>이름_017</t>
-  </si>
-  <si>
-    <t>이름_018</t>
-  </si>
-  <si>
-    <t>이름_019</t>
-  </si>
-  <si>
-    <t>이름_020</t>
-  </si>
-  <si>
-    <t>이름_021</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 002</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 003</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 004</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 005</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 006</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 007</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 008</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 009</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 010</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 011</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 012</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 013</t>
-  </si>
-  <si>
     <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 014</t>
   </si>
   <si>
@@ -219,6 +115,78 @@
   </si>
   <si>
     <t>BackGround/00004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말을 해보아요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두번 말해요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/00100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람을 바꿔 보아요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람을 바꾸고 한번 더 말해요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세번 말해요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경을 바꿔 보아요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표정을 바꿔 보아요!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나 화났어요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/00005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/00004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/00003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene을 골라봐요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음으로 돌아가요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이세계 여행을 해요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SampleScene</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,7 +527,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -591,7 +559,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -600,10 +568,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -613,17 +581,15 @@
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -635,7 +601,7 @@
         <v>-100</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -643,19 +609,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -667,7 +631,7 @@
         <v>-100</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -675,19 +639,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -699,7 +661,7 @@
         <v>-100</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -709,17 +671,15 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -731,7 +691,7 @@
         <v>-100</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -739,19 +699,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -763,7 +721,7 @@
         <v>-100</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -771,19 +729,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -795,7 +751,7 @@
         <v>-100</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -805,17 +761,15 @@
       <c r="B8" s="1">
         <v>0</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -824,10 +778,10 @@
         <v>7</v>
       </c>
       <c r="I8" s="1">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -835,31 +789,29 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I9" s="1">
         <v>-100</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -869,29 +821,27 @@
       <c r="B10" s="1">
         <v>0</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I10" s="1">
         <v>-100</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -899,19 +849,17 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -923,7 +871,7 @@
         <v>-100</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -933,17 +881,15 @@
       <c r="B12" s="1">
         <v>0</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -952,10 +898,10 @@
         <v>11</v>
       </c>
       <c r="I12" s="1">
-        <v>-100</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -963,31 +909,29 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>12</v>
-      </c>
       <c r="I13" s="1">
         <v>-100</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -997,29 +941,27 @@
       <c r="B14" s="1">
         <v>0</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>13</v>
+        <v>-100</v>
       </c>
       <c r="I14" s="1">
         <v>-100</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1029,17 +971,15 @@
       <c r="B15" s="1">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1051,7 +991,7 @@
         <v>-100</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1061,17 +1001,15 @@
       <c r="B16" s="1">
         <v>0</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1083,7 +1021,7 @@
         <v>-100</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1093,17 +1031,15 @@
       <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -1115,7 +1051,7 @@
         <v>-100</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1125,17 +1061,15 @@
       <c r="B18" s="1">
         <v>0</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -1147,7 +1081,7 @@
         <v>-100</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1157,17 +1091,15 @@
       <c r="B19" s="1">
         <v>0</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -1179,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1189,17 +1121,15 @@
       <c r="B20" s="1">
         <v>0</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -1211,7 +1141,7 @@
         <v>-100</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1221,17 +1151,15 @@
       <c r="B21" s="1">
         <v>0</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -1243,7 +1171,7 @@
         <v>-100</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1253,17 +1181,15 @@
       <c r="B22" s="1">
         <v>0</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -1275,7 +1201,7 @@
         <v>-100</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/HeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/HeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB1CF78-126F-4839-AE37-C8609A9CAA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="dialogue" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="72">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,30 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 014</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 015</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 016</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 017</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 018</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 019</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 020</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 021</t>
-  </si>
-  <si>
     <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,106 +69,250 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Character/00003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하… 드디어 다 끝냈네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 1학년한테 과제를 이렇게 많이 주시는 거야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨리 짐 챙겨서 나가자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간이 그리 늦은 시간이 아닌데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람이 아무도 없네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다들 일찍 집에 간건가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>많이 어두워졌네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 어두워지기 전에 빨리 집에 가자..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어울리는 비명소리 텍스트(임시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/63214</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 소리지???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여긴가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문 잠기는 소리!!(임시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무도 없잖아?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게다가 문도 잠겨있네..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 잘못 들은건가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 엄청 피곤한가봐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어서 집에 가야겠다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걷는 소리!(임시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/00003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무려 문이 잠긴 소리!(임시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/63214</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>??!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 문이 잠겼지??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무려 앞쪽도 아닌 뒤쪽에서 들리는 의문의 소리!(임시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 소리야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누구세요…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/00100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LV. 63214 내재하는 혼돈이 꺽꺽대는 소리(임시/캐릭터 실루엣)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/102_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기는 나중에 할레요 무서워요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하아.. 하아….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저건 또 뭐야 진짜?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/00003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LV. 63214 내재하는 혼돈이 방망이를 끄는 소리(임시/캐릭터 실루엣)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/00100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이건 또 무슨 소리지..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/00300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초록이의 등장!!!!!!(임시/소리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Character/00002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BackGround/00001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text_001_Scene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/00002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/00003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/00004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>말을 해보아요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>두번 말해요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/00100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사람을 바꿔 보아요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사람을 바꾸고 한번 더 말해요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세번 말해요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배경을 바꿔 보아요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>표정을 바꿔 보아요!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나 화났어요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/00005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅠㅠ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/00004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>와!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/00003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scene을 골라봐요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>처음으로 돌아가요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이세계 여행을 해요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SampleScene</t>
+    <t>BackGround/301</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -523,11 +642,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -559,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -568,10 +687,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -583,13 +702,13 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -601,7 +720,7 @@
         <v>-100</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -613,13 +732,13 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -631,7 +750,7 @@
         <v>-100</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -639,17 +758,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -661,7 +780,7 @@
         <v>-100</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -669,17 +788,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -691,7 +810,7 @@
         <v>-100</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -699,17 +818,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -721,7 +840,7 @@
         <v>-100</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -733,13 +852,13 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -751,7 +870,7 @@
         <v>-100</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -763,13 +882,13 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -778,10 +897,10 @@
         <v>7</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -793,25 +912,25 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I9" s="1">
         <v>-100</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -819,29 +938,29 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" s="1">
         <v>-100</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -853,13 +972,13 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -871,7 +990,7 @@
         <v>-100</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -883,13 +1002,13 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -898,10 +1017,10 @@
         <v>11</v>
       </c>
       <c r="I12" s="1">
-        <v>1</v>
+        <v>-100</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -913,25 +1032,25 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I13" s="1">
         <v>-100</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -943,25 +1062,25 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>-100</v>
+        <v>13</v>
       </c>
       <c r="I14" s="1">
         <v>-100</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -973,13 +1092,13 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -991,7 +1110,7 @@
         <v>-100</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1003,13 +1122,13 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1021,7 +1140,7 @@
         <v>-100</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1029,17 +1148,17 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -1051,7 +1170,7 @@
         <v>-100</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1063,13 +1182,13 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -1081,7 +1200,7 @@
         <v>-100</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1093,13 +1212,13 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -1108,10 +1227,10 @@
         <v>18</v>
       </c>
       <c r="I19" s="1">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1123,13 +1242,13 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -1141,7 +1260,7 @@
         <v>-100</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1153,13 +1272,13 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -1171,7 +1290,7 @@
         <v>-100</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1183,25 +1302,589 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>-100</v>
+        <v>21</v>
       </c>
       <c r="I22" s="1">
         <v>-100</v>
       </c>
       <c r="J22" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
         <v>22</v>
+      </c>
+      <c r="I23" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>23</v>
+      </c>
+      <c r="I24" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>24</v>
+      </c>
+      <c r="I25" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>25</v>
+      </c>
+      <c r="I26" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>26</v>
+      </c>
+      <c r="I27" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>27</v>
+      </c>
+      <c r="I28" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>28</v>
+      </c>
+      <c r="I29" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>29</v>
+      </c>
+      <c r="I30" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>30</v>
+      </c>
+      <c r="I31" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>31</v>
+      </c>
+      <c r="I32" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>32</v>
+      </c>
+      <c r="I33" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>33</v>
+      </c>
+      <c r="I34" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>34</v>
+      </c>
+      <c r="I35" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>35</v>
+      </c>
+      <c r="I36" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>36</v>
+      </c>
+      <c r="I37" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>37</v>
+      </c>
+      <c r="I38" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>38</v>
+      </c>
+      <c r="I39" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/HeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/HeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84EC8F0-E755-483C-BEB3-D221A984D95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dialogue" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="98">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -245,10 +246,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Character/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>여기는 나중에 할레요 무서워요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -306,13 +303,120 @@
   </si>
   <si>
     <t>BackGround/301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>급하게 뛰는 소리(임시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덜컹덜컹(문)소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니 여기도 잠겼네??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헉..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수님!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수님은 멀쩡하셨군요..!”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변하는 장면(임시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런 미친</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뛰는 장면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/108</t>
+  </si>
+  <si>
+    <t>헉… 헉…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부스럭 부스럭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으아아ㅏㅏ악ㄱ!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진정하세요..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜찮아요? 많이 놀랬죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미안해요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>놀라게 할 생각은 없었는데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누구세요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 장소를 옮길까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저희 할 얘기가 많아 보이는데..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/00302</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -642,11 +746,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -705,7 +809,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
@@ -1592,7 +1696,7 @@
         <v>-1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>53</v>
@@ -1621,13 +1725,13 @@
         <v>0</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
@@ -1639,7 +1743,7 @@
         <v>-100</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -1650,13 +1754,13 @@
         <v>0</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
@@ -1679,10 +1783,10 @@
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>7</v>
@@ -1708,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
@@ -1737,13 +1841,13 @@
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
@@ -1766,10 +1870,10 @@
         <v>0</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>7</v>
@@ -1792,10 +1896,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -1814,6 +1924,27 @@
       <c r="A40" s="1">
         <v>38</v>
       </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>39</v>
+      </c>
+      <c r="I40" s="1">
+        <v>-100</v>
+      </c>
       <c r="J40" s="1" t="s">
         <v>7</v>
       </c>
@@ -1822,6 +1953,27 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>40</v>
+      </c>
+      <c r="I41" s="1">
+        <v>-100</v>
+      </c>
       <c r="J41" s="1" t="s">
         <v>7</v>
       </c>
@@ -1830,6 +1982,27 @@
       <c r="A42" s="1">
         <v>40</v>
       </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>41</v>
+      </c>
+      <c r="I42" s="1">
+        <v>-100</v>
+      </c>
       <c r="J42" s="1" t="s">
         <v>7</v>
       </c>
@@ -1838,6 +2011,27 @@
       <c r="A43" s="1">
         <v>41</v>
       </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>42</v>
+      </c>
+      <c r="I43" s="1">
+        <v>-100</v>
+      </c>
       <c r="J43" s="1" t="s">
         <v>7</v>
       </c>
@@ -1846,6 +2040,27 @@
       <c r="A44" s="1">
         <v>42</v>
       </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>43</v>
+      </c>
+      <c r="I44" s="1">
+        <v>-100</v>
+      </c>
       <c r="J44" s="1" t="s">
         <v>7</v>
       </c>
@@ -1854,6 +2069,27 @@
       <c r="A45" s="1">
         <v>43</v>
       </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>44</v>
+      </c>
+      <c r="I45" s="1">
+        <v>-100</v>
+      </c>
       <c r="J45" s="1" t="s">
         <v>7</v>
       </c>
@@ -1862,6 +2098,27 @@
       <c r="A46" s="1">
         <v>44</v>
       </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>45</v>
+      </c>
+      <c r="I46" s="1">
+        <v>-100</v>
+      </c>
       <c r="J46" s="1" t="s">
         <v>7</v>
       </c>
@@ -1870,6 +2127,27 @@
       <c r="A47" s="1">
         <v>45</v>
       </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>46</v>
+      </c>
+      <c r="I47" s="1">
+        <v>-100</v>
+      </c>
       <c r="J47" s="1" t="s">
         <v>7</v>
       </c>
@@ -1878,13 +2156,403 @@
       <c r="A48" s="1">
         <v>46</v>
       </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>47</v>
+      </c>
+      <c r="I48" s="1">
+        <v>-100</v>
+      </c>
       <c r="J48" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>48</v>
+      </c>
+      <c r="I49" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>49</v>
+      </c>
+      <c r="I50" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>50</v>
+      </c>
+      <c r="I51" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>51</v>
+      </c>
+      <c r="I52" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>52</v>
+      </c>
+      <c r="I53" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>53</v>
+      </c>
+      <c r="I54" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>54</v>
+      </c>
+      <c r="I55" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>55</v>
+      </c>
+      <c r="I56" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>56</v>
+      </c>
+      <c r="I57" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <v>57</v>
+      </c>
+      <c r="I58" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
+        <v>58</v>
+      </c>
+      <c r="I59" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>59</v>
+      </c>
+      <c r="I60" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>60</v>
+      </c>
+      <c r="I61" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/HeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/HeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84EC8F0-E755-483C-BEB3-D221A984D95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="dialogue" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="100">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -410,13 +409,21 @@
   </si>
   <si>
     <t>Character/00302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/0EX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -746,11 +753,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2555,6 +2562,423 @@
         <v>7</v>
       </c>
     </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
+        <v>61</v>
+      </c>
+      <c r="I62" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1">
+        <v>62</v>
+      </c>
+      <c r="I63" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>63</v>
+      </c>
+      <c r="I64" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1">
+        <v>64</v>
+      </c>
+      <c r="I65">
+        <v>-100</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1">
+        <v>65</v>
+      </c>
+      <c r="I66">
+        <v>-100</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1">
+        <v>66</v>
+      </c>
+      <c r="I67">
+        <v>-100</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1">
+        <v>67</v>
+      </c>
+      <c r="I68">
+        <v>-100</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1">
+        <v>68</v>
+      </c>
+      <c r="I69">
+        <v>-100</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1">
+        <v>69</v>
+      </c>
+      <c r="I70">
+        <v>-100</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1">
+        <v>70</v>
+      </c>
+      <c r="I71">
+        <v>-100</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1">
+        <v>71</v>
+      </c>
+      <c r="I72">
+        <v>-100</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1">
+        <v>72</v>
+      </c>
+      <c r="I73">
+        <v>-100</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0</v>
+      </c>
+      <c r="H74" s="1">
+        <v>73</v>
+      </c>
+      <c r="I74">
+        <v>-100</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1">
+        <v>74</v>
+      </c>
+      <c r="I75">
+        <v>-100</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1">
+        <v>75</v>
+      </c>
+      <c r="I76">
+        <v>-100</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0</v>
+      </c>
+      <c r="H77" s="1">
+        <v>76</v>
+      </c>
+      <c r="I77">
+        <v>-100</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0</v>
+      </c>
+      <c r="H78" s="1">
+        <v>77</v>
+      </c>
+      <c r="I78">
+        <v>-100</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" s="1">
+        <v>78</v>
+      </c>
+      <c r="I79">
+        <v>-100</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0</v>
+      </c>
+      <c r="H80" s="1">
+        <v>79</v>
+      </c>
+      <c r="I80">
+        <v>-100</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0</v>
+      </c>
+      <c r="H81" s="1">
+        <v>80</v>
+      </c>
+      <c r="I81">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0</v>
+      </c>
+      <c r="H82" s="1">
+        <v>81</v>
+      </c>
+      <c r="I82">
+        <v>-100</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0</v>
+      </c>
+      <c r="H83" s="1">
+        <v>82</v>
+      </c>
+      <c r="I83">
+        <v>-100</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1">
+        <v>0</v>
+      </c>
+      <c r="H84" s="1">
+        <v>83</v>
+      </c>
+      <c r="I84">
+        <v>-100</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0</v>
+      </c>
+      <c r="E85" t="s">
+        <v>98</v>
+      </c>
+      <c r="F85" t="s">
+        <v>99</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85" s="1">
+        <v>84</v>
+      </c>
+      <c r="I85">
+        <v>-100</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/HeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEE53B3-8E27-4569-9164-03DF638FEFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dialogue" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="106">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -412,18 +413,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/0EX</t>
+    <t>스크립트 파일을 여세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수의 값을 어떻게 고쳐야 할까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>틀렸습니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coding1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정답입니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -753,11 +778,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2553,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="1">
-        <v>60</v>
+        <v>-100</v>
       </c>
       <c r="I61" s="1">
         <v>-100</v>
@@ -2569,14 +2594,26 @@
       <c r="B62" s="1">
         <v>0</v>
       </c>
+      <c r="D62" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
       <c r="H62" s="1">
-        <v>61</v>
+        <v>-100</v>
       </c>
       <c r="I62" s="1">
         <v>-100</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -2586,11 +2623,23 @@
       <c r="B63" s="1">
         <v>0</v>
       </c>
+      <c r="D63" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
       <c r="H63" s="1">
-        <v>62</v>
+        <v>-100</v>
       </c>
       <c r="I63" s="1">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>7</v>
@@ -2603,14 +2652,26 @@
       <c r="B64" s="1">
         <v>0</v>
       </c>
+      <c r="D64" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
       <c r="H64" s="1">
-        <v>63</v>
+        <v>-100</v>
       </c>
       <c r="I64" s="1">
         <v>-100</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -2620,364 +2681,147 @@
       <c r="B65" s="1">
         <v>0</v>
       </c>
+      <c r="D65" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
       <c r="H65" s="1">
-        <v>64</v>
-      </c>
-      <c r="I65">
+        <v>-100</v>
+      </c>
+      <c r="I65" s="1">
         <v>-100</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" s="1">
-        <v>0</v>
-      </c>
-      <c r="H66" s="1">
-        <v>65</v>
-      </c>
-      <c r="I66">
-        <v>-100</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="J66" s="1"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" s="1">
-        <v>0</v>
-      </c>
-      <c r="H67" s="1">
-        <v>66</v>
-      </c>
-      <c r="I67">
-        <v>-100</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="J67" s="1"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" s="1">
-        <v>0</v>
-      </c>
-      <c r="H68" s="1">
-        <v>67</v>
-      </c>
-      <c r="I68">
-        <v>-100</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="J68" s="1"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" s="1">
-        <v>0</v>
-      </c>
-      <c r="H69" s="1">
-        <v>68</v>
-      </c>
-      <c r="I69">
-        <v>-100</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="J69" s="1"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" s="1">
-        <v>0</v>
-      </c>
-      <c r="H70" s="1">
-        <v>69</v>
-      </c>
-      <c r="I70">
-        <v>-100</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="J70" s="1"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" s="1">
-        <v>0</v>
-      </c>
-      <c r="H71" s="1">
-        <v>70</v>
-      </c>
-      <c r="I71">
-        <v>-100</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="J71" s="1"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" s="1">
-        <v>0</v>
-      </c>
-      <c r="H72" s="1">
-        <v>71</v>
-      </c>
-      <c r="I72">
-        <v>-100</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="J72" s="1"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" s="1">
-        <v>0</v>
-      </c>
-      <c r="H73" s="1">
-        <v>72</v>
-      </c>
-      <c r="I73">
-        <v>-100</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="J73" s="1"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" s="1">
-        <v>0</v>
-      </c>
-      <c r="H74" s="1">
-        <v>73</v>
-      </c>
-      <c r="I74">
-        <v>-100</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="J74" s="1"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" s="1">
-        <v>0</v>
-      </c>
-      <c r="H75" s="1">
-        <v>74</v>
-      </c>
-      <c r="I75">
-        <v>-100</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="J75" s="1"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" s="1">
-        <v>0</v>
-      </c>
-      <c r="H76" s="1">
-        <v>75</v>
-      </c>
-      <c r="I76">
-        <v>-100</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="J76" s="1"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" s="1">
-        <v>0</v>
-      </c>
-      <c r="H77" s="1">
-        <v>76</v>
-      </c>
-      <c r="I77">
-        <v>-100</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="J77" s="1"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" s="1">
-        <v>0</v>
-      </c>
-      <c r="H78" s="1">
-        <v>77</v>
-      </c>
-      <c r="I78">
-        <v>-100</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="J78" s="1"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" s="1">
-        <v>0</v>
-      </c>
-      <c r="H79" s="1">
-        <v>78</v>
-      </c>
-      <c r="I79">
-        <v>-100</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="J79" s="1"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" s="1">
-        <v>0</v>
-      </c>
-      <c r="H80" s="1">
-        <v>79</v>
-      </c>
-      <c r="I80">
-        <v>-100</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="J80" s="1"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" s="1">
-        <v>0</v>
-      </c>
-      <c r="H81" s="1">
-        <v>80</v>
-      </c>
-      <c r="I81">
-        <v>-100</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="J81" s="1"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" s="1">
-        <v>0</v>
-      </c>
-      <c r="H82" s="1">
-        <v>81</v>
-      </c>
-      <c r="I82">
-        <v>-100</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="J82" s="1"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" s="1">
-        <v>0</v>
-      </c>
-      <c r="H83" s="1">
-        <v>82</v>
-      </c>
-      <c r="I83">
-        <v>-100</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="J83" s="1"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" s="1">
-        <v>0</v>
-      </c>
-      <c r="H84" s="1">
-        <v>83</v>
-      </c>
-      <c r="I84">
-        <v>-100</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="J84" s="1"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" s="1">
-        <v>0</v>
-      </c>
-      <c r="E85" t="s">
-        <v>98</v>
-      </c>
-      <c r="F85" t="s">
-        <v>99</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85" s="1">
-        <v>84</v>
-      </c>
-      <c r="I85">
-        <v>-100</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="J85" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/HeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/HeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEE53B3-8E27-4569-9164-03DF638FEFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2C7652-4ED4-44BB-9F3C-43BA5434B391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="107">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -442,6 +442,10 @@
   </si>
   <si>
     <t>Main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/00600</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -781,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J66" sqref="J66"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1231,7 +1235,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>7</v>
@@ -1499,7 +1503,7 @@
         <v>44</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>43</v>

--- a/HeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/HeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2C7652-4ED4-44BB-9F3C-43BA5434B391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCE15B9-414C-4198-A903-52C3450FDFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="104">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>어울리는 비명소리 텍스트(임시)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Character/63214</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,10 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>문 잠기는 소리!!(임시)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>..?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,10 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>걷는 소리!(임시)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Character/00003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,10 +186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>무려 문이 잠긴 소리!(임시)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Character/63214</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,10 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>무려 앞쪽도 아닌 뒤쪽에서 들리는 의문의 소리!(임시)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>무슨 소리야?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,22 +218,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LV. 63214 내재하는 혼돈이 꺽꺽대는 소리(임시/캐릭터 실루엣)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BackGround/102_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>여기는 나중에 할레요 무서워요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하아.. 하아….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>저건 또 뭐야 진짜?!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,10 +238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LV. 63214 내재하는 혼돈이 방망이를 끄는 소리(임시/캐릭터 실루엣)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Character/00100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -290,10 +254,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>초록이의 등장!!!!!!(임시/소리)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>!!!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -306,18 +266,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>급하게 뛰는 소리(임시)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BackGround/202</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>덜컹덜컹(문)소리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아니 여기도 잠겼네??</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -334,18 +286,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>교수님은 멀쩡하셨군요..!”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>변하는 장면(임시)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BackGround/302</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -354,10 +298,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>뛰는 장면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BackGround/108</t>
   </si>
   <si>
@@ -446,6 +386,54 @@
   </si>
   <si>
     <t>Character/00600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철컥…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헉..헉...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하아..하아….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꺄아아악!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철컥 철컥…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끼기기긱…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끼기기기긱…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덜컹 덜컹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수님은 멀쩡하셨군요..!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -785,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1082,10 +1070,10 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>7</v>
@@ -1112,7 +1100,7 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
@@ -1142,7 +1130,7 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>12</v>
@@ -1171,14 +1159,12 @@
         <v>0</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -1202,13 +1188,13 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -1232,10 +1218,10 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>7</v>
@@ -1262,7 +1248,7 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>12</v>
@@ -1292,7 +1278,7 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>12</v>
@@ -1322,7 +1308,7 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>12</v>
@@ -1352,7 +1338,7 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>12</v>
@@ -1382,7 +1368,7 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>12</v>
@@ -1412,7 +1398,7 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>12</v>
@@ -1442,7 +1428,7 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>12</v>
@@ -1470,14 +1456,12 @@
       <c r="B23" s="1">
         <v>0</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -1500,13 +1484,13 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -1529,10 +1513,10 @@
         <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>13</v>
@@ -1558,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>13</v>
@@ -1587,10 +1571,10 @@
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>13</v>
@@ -1616,10 +1600,10 @@
         <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>13</v>
@@ -1645,13 +1629,13 @@
         <v>0</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
@@ -1674,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>13</v>
@@ -1703,13 +1687,13 @@
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -1729,16 +1713,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
@@ -1761,13 +1745,13 @@
         <v>0</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
@@ -1779,7 +1763,7 @@
         <v>-100</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -1790,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
@@ -1819,10 +1803,10 @@
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>7</v>
@@ -1848,13 +1832,13 @@
         <v>0</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
@@ -1877,13 +1861,13 @@
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
@@ -1906,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>12</v>
@@ -1935,13 +1919,13 @@
         <v>0</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -1964,13 +1948,13 @@
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -1993,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>12</v>
@@ -2022,13 +2006,13 @@
         <v>0</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
@@ -2051,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>11</v>
@@ -2080,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>11</v>
@@ -2109,10 +2093,10 @@
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>7</v>
@@ -2138,10 +2122,10 @@
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>7</v>
@@ -2167,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>12</v>
@@ -2196,13 +2180,13 @@
         <v>0</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
@@ -2225,13 +2209,13 @@
         <v>0</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -2254,13 +2238,13 @@
         <v>0</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
@@ -2283,10 +2267,10 @@
         <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>7</v>
@@ -2312,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>11</v>
@@ -2341,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>12</v>
@@ -2370,7 +2354,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>7</v>
@@ -2396,10 +2380,10 @@
         <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>7</v>
@@ -2425,10 +2409,10 @@
         <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>7</v>
@@ -2454,10 +2438,10 @@
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>7</v>
@@ -2483,10 +2467,10 @@
         <v>1</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>7</v>
@@ -2512,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>12</v>
@@ -2541,10 +2525,10 @@
         <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>7</v>
@@ -2570,10 +2554,10 @@
         <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>7</v>
@@ -2588,7 +2572,7 @@
         <v>-100</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -2599,13 +2583,13 @@
         <v>0</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="G62" s="1">
         <v>0</v>
@@ -2628,13 +2612,13 @@
         <v>0</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="G63" s="1">
         <v>0</v>
@@ -2657,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>7</v>
@@ -2675,7 +2659,7 @@
         <v>-100</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -2686,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>7</v>
@@ -2704,7 +2688,7 @@
         <v>-100</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
